--- a/utils.xlsx
+++ b/utils.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="199">
   <si>
     <t xml:space="preserve">C3</t>
   </si>
@@ -157,27 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">activos por impuestos, corrientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALORES NEGOCIABLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEUDORES POR VENTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEUDORES POR VTA. VEHICULOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEUDORES VARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEHICULOS PARA LA VENTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEHICULOS POR DESACTIVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASTOS PAGADOS POR ANTICIPADO</t>
   </si>
   <si>
     <t xml:space="preserve">C14</t>
@@ -757,7 +736,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,20 +761,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -824,25 +799,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="53.0510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="52.3775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,111 +973,6 @@
       </c>
       <c r="G7" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="0"/>
-      <c r="D8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="0"/>
-      <c r="D9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="D10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="D13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="6"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="6"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="6"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1123,175 +993,175 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="0"/>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="0"/>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="0"/>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="0"/>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="0"/>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="0"/>
       <c r="F8" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="0"/>
       <c r="J9" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1312,116 +1182,116 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1448,94 +1318,94 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.6020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.75"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C6" s="0"/>
     </row>
@@ -1563,73 +1433,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1656,205 +1526,205 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="83.2908163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="82.3469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/utils.xlsx
+++ b/utils.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ActivosCorrientes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="202">
   <si>
     <t xml:space="preserve">C3</t>
   </si>
@@ -594,6 +594,9 @@
     <t xml:space="preserve">otros gastos fuera de explotacion</t>
   </si>
   <si>
+    <t xml:space="preserve">costos financieros (menos)</t>
+  </si>
+  <si>
     <t xml:space="preserve">participacion en las ganancias (perdidas) de asociadas y negocios conjuntos utilizando el metodo de la participacion</t>
   </si>
   <si>
@@ -606,6 +609,9 @@
     <t xml:space="preserve">costos de explotacion</t>
   </si>
   <si>
+    <t xml:space="preserve">costos de distribucion (menos)</t>
+  </si>
+  <si>
     <t xml:space="preserve">resultado en empresas relacionadas</t>
   </si>
   <si>
@@ -622,6 +628,9 @@
   </si>
   <si>
     <t xml:space="preserve">impuestos a las ganancias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costo de ventas (menos)</t>
   </si>
 </sst>
 </file>
@@ -736,7 +745,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,6 +790,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -802,22 +815,22 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="J4 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="52.3775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,22 +1007,22 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="J4 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,20 +1196,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="1" sqref="J4 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.6020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,19 +1326,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="F41" activeCellId="1" sqref="J4 F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.75"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,18 +1441,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="J4 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,28 +1531,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="82.3469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="80.4540816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,44 +1699,55 @@
       <c r="G4" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="J4" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/utils.xlsx
+++ b/utils.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ActivosCorrientes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="203">
   <si>
     <t xml:space="preserve">C3</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t xml:space="preserve">gastos de distribucion y comercializacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gastos de administración</t>
   </si>
   <si>
     <t xml:space="preserve">otros ingresos fuera de explotacion</t>
@@ -815,22 +818,22 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="J4 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,22 +1010,22 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="J4 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,20 +1199,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="1" sqref="J4 H12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,19 +1329,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="1" sqref="J4 F41"/>
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,18 +1444,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="J4 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,25 +1536,25 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="80.4540816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="79.5102040816327"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,61 +1696,64 @@
       <c r="D4" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
